--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/FiscalizacionProductos.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/FiscalizacionProductos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D8BD0C-487C-494A-AF7C-FAC7FD28F168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5F4A1C-F88D-4D6F-ABCF-45D4F7F7A033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{38EF5EC3-3DDE-4D0B-BA11-A3D162EFD7A5}"/>
   </bookViews>
@@ -430,7 +430,7 @@
     <numFmt numFmtId="167" formatCode="[$-C0A]d\-mmm\-yy;@"/>
     <numFmt numFmtId="168" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Arial"/>
@@ -491,6 +491,17 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -670,7 +681,7 @@
     <xf numFmtId="167" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="64">
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -726,23 +737,7 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -766,22 +761,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -875,6 +854,78 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -955,6 +1006,56 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>157655</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19707</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1117858</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>153773</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01156A1F-3EA9-4AC2-BDF4-A883A9A84E13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1806465" y="7514897"/>
+          <a:ext cx="960203" cy="685859"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -29954,8 +30055,8 @@
   </sheetPr>
   <dimension ref="A1:XFC49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -29976,17 +30077,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="51"/>
-      <c r="B1" s="51"/>
-      <c r="C1" s="39" t="s">
+      <c r="A1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="45" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="46"/>
+      <c r="G1" s="38"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -29995,15 +30096,15 @@
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="47" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="48"/>
+      <c r="G2" s="40"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -30012,15 +30113,15 @@
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="49" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="50"/>
+      <c r="G3" s="42"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -30029,15 +30130,15 @@
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="24" t="s">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="20" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="2"/>
@@ -30048,15 +30149,15 @@
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="53"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="25" t="s">
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="21" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="2"/>
@@ -30091,13 +30192,13 @@
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -30122,7 +30223,7 @@
       <c r="E11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="26"/>
+      <c r="F11" s="22"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -30143,7 +30244,7 @@
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -30157,8 +30258,8 @@
       </c>
     </row>
     <row r="14" spans="1:14" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B14" s="37"/>
-      <c r="C14" s="33"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
         <v>0</v>
@@ -30168,8 +30269,8 @@
       </c>
     </row>
     <row r="15" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="36"/>
-      <c r="C15" s="35" t="s">
+      <c r="B15" s="28"/>
+      <c r="C15" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="9" t="s">
@@ -30185,56 +30286,56 @@
     </row>
     <row r="16" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="11"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="12"/>
       <c r="G16" s="8"/>
     </row>
     <row r="17" spans="3:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="48" t="s">
         <v>9</v>
       </c>
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="3:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="13" t="s">
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="49" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="3:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="57" t="s">
         <v>30</v>
       </c>
       <c r="G19" s="14"/>
     </row>
     <row r="20" spans="3:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="27"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="10"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="54"/>
     </row>
     <row r="21" spans="3:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="3"/>
@@ -30243,10 +30344,10 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="3:7" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="46" t="s">
         <v>1</v>
       </c>
       <c r="E22" s="6" t="s">
@@ -30257,8 +30358,8 @@
       </c>
     </row>
     <row r="23" spans="3:7" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C23" s="28"/>
-      <c r="D23" s="18"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
       <c r="E23" s="7" t="s">
         <v>0</v>
       </c>
@@ -30267,24 +30368,24 @@
       </c>
     </row>
     <row r="24" spans="3:7" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="29" t="s">
+      <c r="E24" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="30" t="s">
+      <c r="F24" s="60" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="3:7" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C25" s="27"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="10"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="54"/>
     </row>
     <row r="26" spans="3:7" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C26" s="3"/>
@@ -30299,21 +30400,21 @@
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="3:7" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="19" t="s">
+      <c r="F28" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="3:7" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C29" s="20"/>
+      <c r="C29" s="63"/>
       <c r="D29" s="7" t="s">
         <v>10</v>
       </c>
@@ -30325,24 +30426,24 @@
       </c>
     </row>
     <row r="30" spans="3:7" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="29" t="s">
+      <c r="E30" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="30" t="s">
+      <c r="F30" s="57" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="3:7" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C31" s="27"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="10"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="54"/>
     </row>
     <row r="32" spans="3:7" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C32" s="3"/>
@@ -30363,12 +30464,12 @@
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:14" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
     </row>
     <row r="36" spans="1:14" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
@@ -30422,21 +30523,21 @@
     <row r="44" spans="1:14" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="21"/>
+      <c r="C44" s="17"/>
       <c r="D44" s="3"/>
-      <c r="F44" s="21"/>
+      <c r="F44" s="17"/>
     </row>
     <row r="45" spans="1:14" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B45" s="3"/>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F45" s="22" t="s">
+      <c r="F45" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:14" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B46" s="22"/>
+    <row r="46" spans="1:14" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B46" s="18"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I47" s="2"/>
@@ -30456,7 +30557,12 @@
     </row>
     <row r="49" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="11">
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="C28:C29"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="C1:E5"/>
     <mergeCell ref="F1:G1"/>
